--- a/data/Strassen und Orte/Wettenberg/Wettenberg.xlsx
+++ b/data/Strassen und Orte/Wettenberg/Wettenberg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\PlatformIO\Projects\TTS\data\Strassen und Orte\Wettenberg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC3DE8C-AA34-4B64-B7D9-5D4F92CABA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574D14EB-6579-4F92-972A-3CDC0BC54F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{839D6AF7-FF7D-4C4E-89F8-EC6C346E55BD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{839D6AF7-FF7D-4C4E-89F8-EC6C346E55BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Krofdorf-Gleiberg" sheetId="1" r:id="rId1"/>
@@ -962,11 +962,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73DBE10-9B2C-489A-81AD-21FC797DCEA2}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2101,11 +2104,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DDACC7-C3BA-495A-A49A-4B9247C6FE7B}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A149" sqref="A76:XFD149"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3166,11 +3172,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0154DE-CF94-422F-95A2-8C23684AC175}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
